--- a/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>1,73</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>1,88</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 1,85</t>
+          <t>1,01; 1,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,79</t>
+          <t>1,39; 1,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 1,88</t>
+          <t>1,23; 1,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,01</t>
+          <t>1,17; 1,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,05</t>
+          <t>1,17; 1,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,75</t>
+          <t>1,89; 2,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,27</t>
+          <t>1,59; 1,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,12</t>
+          <t>2,08; 2,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 1,9</t>
+          <t>1,14; 1,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,29</t>
+          <t>1,75; 2,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,07</t>
+          <t>1,48; 1,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,06</t>
+          <t>1,77; 2,31</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>1,22</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>1,15</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,93</t>
+          <t>0,82; 0,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,18</t>
+          <t>0,38; 0,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,84</t>
+          <t>0,64; 0,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,88</t>
+          <t>0,97; 1,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,89</t>
+          <t>0,67; 0,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,34</t>
+          <t>0,72; 1,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,21</t>
+          <t>0,66; 0,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,73</t>
+          <t>1,11; 1,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,89</t>
+          <t>0,76; 0,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,22</t>
+          <t>0,66; 1,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,05</t>
+          <t>0,67; 0,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,8</t>
+          <t>1,07; 1,23</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,96</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>0,73</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,9</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,68</t>
+          <t>0,5; 0,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0,66; 0,87</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 0,54</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,86; 1,08</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 0,83</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 0,62</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,53</t>
+          <t>0,39; 0,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,96</t>
+          <t>0,61; 0,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,71</t>
+          <t>0,32; 0,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,45</t>
+          <t>0,77; 0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,57</t>
+          <t>0,46; 0,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 0,98</t>
+          <t>0,66; 0,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,74</t>
+          <t>0,37; 0,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,51</t>
+          <t>0,83; 0,98</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,09</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,01</t>
+          <t>0,8; 0,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,18</t>
+          <t>0,52; 0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 0,97</t>
+          <t>0,69; 0,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,02; 1,18</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 0,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 1,73</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 0,86</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 1,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 0,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 1,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
           <t>0,74; 0,82</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 1,02</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 1,38</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 0,73</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 1,0</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>1,13; 1,26</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 1,13</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 0,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indice de cronicidad total 1-10</t>
+          <t>Indice de cronicidad total 0-9</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indice de cronicidad total 0-9</t>
+          <t>Indice de cronicidad total 0-9 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,34</t>
+          <t>0,94; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,83</t>
+          <t>1,36; 1,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,82</t>
+          <t>1,14; 1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,41</t>
+          <t>1,16; 1,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,21</t>
+          <t>1,88; 2,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,84</t>
+          <t>2,1; 2,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,34</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,01</t>
+          <t>1,76; 2,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,31</t>
+          <t>1,75; 2,3</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 0,94</t>
+          <t>0,76; 0,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,18</t>
+          <t>0,97; 1,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,78</t>
+          <t>0,65; 0,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,72</t>
+          <t>0,74; 1,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,35</t>
+          <t>1,12; 1,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,85</t>
+          <t>0,72; 0,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,39</t>
+          <t>0,66; 1,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,65</t>
+          <t>0,45; 0,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,87</t>
+          <t>0,67; 0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,5</t>
+          <t>0,37; 0,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,77</t>
+          <t>0,62; 0,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,95</t>
+          <t>0,77; 0,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,54</t>
+          <t>0,42; 0,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 0,98</t>
+          <t>0,84; 0,98</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,27 +1096,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,74</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,9</t>
+          <t>0,73; 0,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,79</t>
+          <t>0,67; 0,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,73</t>
+          <t>0,98; 1,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,37</t>
+          <t>1,19; 1,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,83</t>
+          <t>0,71; 0,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,38</t>
+          <t>0,85; 1,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">

--- a/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,09</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>1,59</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>1,2</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,34; 1,78</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 1,86</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 1,57</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,94; 1,26</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 1,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 1,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1,86</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>1,86; 2,18</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 2,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 1,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>1,16; 1,41</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 2,2</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 1,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 2,82</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>1,73; 1,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 2,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 1,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>1,11; 1,31</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 2,01</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 1,71</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 2,3</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>0,76</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,71; 0,86</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 1,19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 0,76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,76; 0,88</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 0,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 0,76</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,19</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,65; 0,77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 1,35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 0,8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,65; 0,75</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 1,91</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 0,8</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 1,35</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>0,7; 0,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 1,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 0,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,72; 0,8</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 1,37</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 0,76</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 1,23</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,52</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0,42</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>0,47</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,68; 0,89</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 1,08</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 0,54</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,45; 0,6</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 0,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 0,54</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 1,08</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,63; 0,81</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 0,96</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 0,45</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0,37; 0,48</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 0,79</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 0,45</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 0,96</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>0,68; 0,81</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 0,98</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 0,47</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>0,42; 0,51</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 0,8</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 0,47</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 0,98</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,77</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>0,78</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,74</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,82; 0,93</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 1,18</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 0,79</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,73; 0,82</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 0,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 0,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 1,18</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>0,91; 1,02</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 1,38</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 0,86</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0,67; 0,75</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 1,7</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 0,86</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 1,38</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>0,88; 0,96</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 1,26</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 0,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>0,71; 0,77</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,33</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 0,82</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 1,26</t>
         </is>
       </c>
     </row>
